--- a/Code/Results/Cases/Case_0_251/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_251/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2906672013852898</v>
+        <v>0.4145870963267839</v>
       </c>
       <c r="D2">
-        <v>0.07135028954750311</v>
+        <v>0.1615748415687079</v>
       </c>
       <c r="E2">
-        <v>0.09460069602863186</v>
+        <v>0.1784203654063603</v>
       </c>
       <c r="F2">
-        <v>1.641423048378044</v>
+        <v>1.907250001524517</v>
       </c>
       <c r="G2">
-        <v>1.398571940123901</v>
+        <v>1.258863221492163</v>
       </c>
       <c r="H2">
-        <v>0.7829734909832951</v>
+        <v>1.139205889773933</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1389251875320738</v>
+        <v>0.2336961426485047</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06575782215585591</v>
+        <v>0.1609786650762786</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
-        <v>4.554766457157655</v>
+        <v>4.892343549182669</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.264819150403838</v>
+        <v>0.4107024072645231</v>
       </c>
       <c r="D3">
-        <v>0.06801556063000902</v>
+        <v>0.1615709920218293</v>
       </c>
       <c r="E3">
-        <v>0.08829168160851353</v>
+        <v>0.1778979785888062</v>
       </c>
       <c r="F3">
-        <v>1.474483329676801</v>
+        <v>1.877333202784783</v>
       </c>
       <c r="G3">
-        <v>1.239332217097797</v>
+        <v>1.226370776659223</v>
       </c>
       <c r="H3">
-        <v>0.7140766837168258</v>
+        <v>1.129112780806395</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1282041312393787</v>
+        <v>0.2324819634783069</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06322577217075676</v>
+        <v>0.1611842094933245</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679681</v>
       </c>
       <c r="O3">
-        <v>4.07247046894571</v>
+        <v>4.801883612414144</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2493502335155711</v>
+        <v>0.4085160041096572</v>
       </c>
       <c r="D4">
-        <v>0.06604828528411844</v>
+        <v>0.1616226682651245</v>
       </c>
       <c r="E4">
-        <v>0.0845445663130846</v>
+        <v>0.1776499131431954</v>
       </c>
       <c r="F4">
-        <v>1.374323456204152</v>
+        <v>1.859969350165471</v>
       </c>
       <c r="G4">
-        <v>1.14354053265626</v>
+        <v>1.207147119790932</v>
       </c>
       <c r="H4">
-        <v>0.6729021160731747</v>
+        <v>1.123460027337075</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1218214614425648</v>
+        <v>0.231840510704231</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06174964215672674</v>
+        <v>0.1613630788569438</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375818</v>
       </c>
       <c r="O4">
-        <v>3.782885614023996</v>
+        <v>4.749003842339505</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2431398494577195</v>
+        <v>0.4076750433124943</v>
       </c>
       <c r="D5">
-        <v>0.06526579970235957</v>
+        <v>0.1616573420264942</v>
       </c>
       <c r="E5">
-        <v>0.08304739593245003</v>
+        <v>0.1775671208319913</v>
       </c>
       <c r="F5">
-        <v>1.334045195922556</v>
+        <v>1.853146138554038</v>
       </c>
       <c r="G5">
-        <v>1.104954856905792</v>
+        <v>1.199495870671711</v>
       </c>
       <c r="H5">
-        <v>0.6563846136819791</v>
+        <v>1.121293439370447</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1192671533853371</v>
+        <v>0.2316052930081511</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06116690039061368</v>
+        <v>0.1614492342834453</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
-        <v>3.666374842582229</v>
+        <v>4.728124154461909</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2421140398593309</v>
+        <v>0.4075384239871767</v>
       </c>
       <c r="D6">
-        <v>0.06513700019988988</v>
+        <v>0.1616639226908205</v>
       </c>
       <c r="E6">
-        <v>0.08280053531264997</v>
+        <v>0.1775544788788963</v>
       </c>
       <c r="F6">
-        <v>1.327388065775452</v>
+        <v>1.852028410230858</v>
       </c>
       <c r="G6">
-        <v>1.098573577783341</v>
+        <v>1.198236405631889</v>
       </c>
       <c r="H6">
-        <v>0.6536570643601181</v>
+        <v>1.120941952292355</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1188457302302695</v>
+        <v>0.2315678168707933</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.06107124471965619</v>
+        <v>0.1614643421285713</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
-        <v>3.647114593805043</v>
+        <v>4.7246975083238</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2492661100931173</v>
+        <v>0.4085044600711711</v>
       </c>
       <c r="D7">
-        <v>0.06603765594978483</v>
+        <v>0.1616230807239916</v>
       </c>
       <c r="E7">
-        <v>0.08452425684748377</v>
+        <v>0.1776487224689518</v>
       </c>
       <c r="F7">
-        <v>1.373778137521754</v>
+        <v>1.859876306866127</v>
       </c>
       <c r="G7">
-        <v>1.143018391235472</v>
+        <v>1.207043193539619</v>
       </c>
       <c r="H7">
-        <v>0.672678324925414</v>
+        <v>1.123430253393025</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1217868287672985</v>
+        <v>0.2318372324579556</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06174170822879077</v>
+        <v>0.1613641870416771</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851395496</v>
       </c>
       <c r="O7">
-        <v>3.781308435578865</v>
+        <v>4.748719542336403</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2816665603978237</v>
+        <v>0.4132064037997338</v>
       </c>
       <c r="D8">
-        <v>0.07018320188231542</v>
+        <v>0.1615623138236018</v>
       </c>
       <c r="E8">
-        <v>0.09239779316056129</v>
+        <v>0.1782251725285136</v>
       </c>
       <c r="F8">
-        <v>1.583344276061283</v>
+        <v>1.896726010695033</v>
       </c>
       <c r="G8">
-        <v>1.343224603225195</v>
+        <v>1.247508824146593</v>
       </c>
       <c r="H8">
-        <v>0.7589697864432594</v>
+        <v>1.135612805412876</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1351847676646258</v>
+        <v>0.2332559032987476</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06486786709935899</v>
+        <v>0.1610386191533593</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209825</v>
       </c>
       <c r="O8">
-        <v>4.387019120166826</v>
+        <v>4.86059998215768</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3487715019664961</v>
+        <v>0.4240043641161151</v>
       </c>
       <c r="D9">
-        <v>0.07899773853685588</v>
+        <v>0.1618709033210948</v>
       </c>
       <c r="E9">
-        <v>0.1089424535995036</v>
+        <v>0.1799316716272514</v>
       </c>
       <c r="F9">
-        <v>2.015395767200289</v>
+        <v>1.976973078055465</v>
       </c>
       <c r="G9">
-        <v>1.753923792174646</v>
+        <v>1.332644793882565</v>
       </c>
       <c r="H9">
-        <v>0.9382341243810117</v>
+        <v>1.163823441513983</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.163224320681401</v>
+        <v>0.2368634153445655</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.07166871888615489</v>
+        <v>0.1608171973377601</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550789</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
-        <v>5.63407360207259</v>
+        <v>5.101162523401683</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.400825211813725</v>
+        <v>0.4329007671987029</v>
       </c>
       <c r="D10">
-        <v>0.0859647418277163</v>
+        <v>0.1623572111729956</v>
       </c>
       <c r="E10">
-        <v>0.1219232012843854</v>
+        <v>0.1815361776646149</v>
       </c>
       <c r="F10">
-        <v>2.349515612903943</v>
+        <v>2.040820501381816</v>
       </c>
       <c r="G10">
-        <v>2.070310699451454</v>
+        <v>1.398750128412559</v>
       </c>
       <c r="H10">
-        <v>1.077735688674522</v>
+        <v>1.187188775875882</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1851741583348598</v>
+        <v>0.2400175384909247</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.07714583962173549</v>
+        <v>0.1609077591742292</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
-        <v>6.597572748559344</v>
+        <v>5.290882596801623</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4252456720112434</v>
+        <v>0.4371575361408873</v>
       </c>
       <c r="D11">
-        <v>0.08925880134975017</v>
+        <v>0.1626345781302803</v>
       </c>
       <c r="E11">
-        <v>0.1280452313273983</v>
+        <v>0.1823422034696165</v>
       </c>
       <c r="F11">
-        <v>2.506090006833972</v>
+        <v>2.070933559428283</v>
       </c>
       <c r="G11">
-        <v>2.218320448680686</v>
+        <v>1.429602432515935</v>
       </c>
       <c r="H11">
-        <v>1.143306332572337</v>
+        <v>1.198392676900625</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1955202479776119</v>
+        <v>0.2415619452896181</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.07975961899352058</v>
+        <v>0.1610037532333237</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
-        <v>7.048931978765722</v>
+        <v>5.38002757159876</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4346127269076874</v>
+        <v>0.4387996321026719</v>
       </c>
       <c r="D12">
-        <v>0.0905257564665618</v>
+        <v>0.1627476604520766</v>
       </c>
       <c r="E12">
-        <v>0.1303981503767027</v>
+        <v>0.1826583594944289</v>
       </c>
       <c r="F12">
-        <v>2.566127375101104</v>
+        <v>2.08249050447148</v>
       </c>
       <c r="G12">
-        <v>2.27503815913667</v>
+        <v>1.441398060645895</v>
       </c>
       <c r="H12">
-        <v>1.168478183217047</v>
+        <v>1.202718009386928</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1994962106563634</v>
+        <v>0.2421625299244141</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.08076860042604039</v>
+        <v>0.1610479651501322</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
-        <v>7.221984316641567</v>
+        <v>5.414193847512422</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4325898257306733</v>
+        <v>0.4384446366101997</v>
       </c>
       <c r="D13">
-        <v>0.09025199719909693</v>
+        <v>0.1627229485253068</v>
       </c>
       <c r="E13">
-        <v>0.1298898082649949</v>
+        <v>0.1825897836986528</v>
       </c>
       <c r="F13">
-        <v>2.553162588331588</v>
+        <v>2.079994667914889</v>
       </c>
       <c r="G13">
-        <v>2.262791800078503</v>
+        <v>1.438852651878591</v>
       </c>
       <c r="H13">
-        <v>1.163041128855525</v>
+        <v>1.201782795529283</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.198637225139791</v>
+        <v>0.2420324828273266</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.08055041665862461</v>
+        <v>0.1610380939957068</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
-        <v>7.184615224344554</v>
+        <v>5.406817328695752</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4260138300537051</v>
+        <v>0.4372920281793142</v>
       </c>
       <c r="D14">
-        <v>0.08936263249041332</v>
+        <v>0.1626437202922801</v>
       </c>
       <c r="E14">
-        <v>0.128238092300613</v>
+        <v>0.1823679948194759</v>
       </c>
       <c r="F14">
-        <v>2.511013833993132</v>
+        <v>2.071881273450145</v>
       </c>
       <c r="G14">
-        <v>2.222972726216227</v>
+        <v>1.430570609092314</v>
       </c>
       <c r="H14">
-        <v>1.145370155633714</v>
+        <v>1.198746868062074</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1958461500891033</v>
+        <v>0.2416110401029954</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.07984223381360778</v>
+        <v>0.1610072331331551</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
-        <v>7.063124810463023</v>
+        <v>5.382830251232349</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4220018206157192</v>
+        <v>0.4365899483082671</v>
       </c>
       <c r="D15">
-        <v>0.08882047000953008</v>
+        <v>0.162596238288593</v>
       </c>
       <c r="E15">
-        <v>0.1272309872677972</v>
+        <v>0.1822335658805763</v>
       </c>
       <c r="F15">
-        <v>2.485296402234553</v>
+        <v>2.066931616112015</v>
       </c>
       <c r="G15">
-        <v>2.198672189183185</v>
+        <v>1.425512281660389</v>
       </c>
       <c r="H15">
-        <v>1.134591869542561</v>
+        <v>1.196898039116945</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1941443005857337</v>
+        <v>0.2413549453743187</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.07941100279727209</v>
+        <v>0.1609893531537594</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193851</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
-        <v>6.988994127046055</v>
+        <v>5.368190755786713</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3992452704963227</v>
+        <v>0.4326267970158142</v>
       </c>
       <c r="D16">
-        <v>0.08575211314484221</v>
+        <v>0.162340212290303</v>
       </c>
       <c r="E16">
-        <v>0.1215277650067002</v>
+        <v>0.1814850325341908</v>
       </c>
       <c r="F16">
-        <v>2.339382557883553</v>
+        <v>2.03887405489867</v>
       </c>
       <c r="G16">
-        <v>2.060726943723381</v>
+        <v>1.396749589797167</v>
       </c>
       <c r="H16">
-        <v>1.07349613908508</v>
+        <v>1.186468141939287</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1845057980572236</v>
+        <v>0.2399188123669802</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.07697761756628552</v>
+        <v>0.1609025867895397</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
-        <v>6.568359311243512</v>
+        <v>5.285113966609799</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3854835045396783</v>
+        <v>0.4302492454540641</v>
       </c>
       <c r="D17">
-        <v>0.08390283576309088</v>
+        <v>0.1621975111976752</v>
       </c>
       <c r="E17">
-        <v>0.1180869453089777</v>
+        <v>0.1810453185918668</v>
       </c>
       <c r="F17">
-        <v>2.251101935548775</v>
+        <v>2.021935419282357</v>
       </c>
       <c r="G17">
-        <v>1.977203991531383</v>
+        <v>1.379304747435498</v>
       </c>
       <c r="H17">
-        <v>1.03658243290792</v>
+        <v>1.18021697327589</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1786895751359552</v>
+        <v>0.2390658528425007</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.0755172230815262</v>
+        <v>0.1608633798883545</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
-        <v>6.313831251855106</v>
+        <v>5.234876931550275</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3776369937686752</v>
+        <v>0.4289014840593381</v>
       </c>
       <c r="D18">
-        <v>0.08285081484412871</v>
+        <v>0.1621207191674614</v>
       </c>
       <c r="E18">
-        <v>0.1161280796851827</v>
+        <v>0.1807995731982359</v>
       </c>
       <c r="F18">
-        <v>2.200750782965471</v>
+        <v>2.012293332637199</v>
       </c>
       <c r="G18">
-        <v>1.929542779067731</v>
+        <v>1.369344397988556</v>
       </c>
       <c r="H18">
-        <v>1.015546810287333</v>
+        <v>1.176675578534685</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1753778092424056</v>
+        <v>0.2385855676477391</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.07468863938705894</v>
+        <v>0.1608459879753426</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
-        <v>6.168645891449046</v>
+        <v>5.206249231189418</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3749917565879457</v>
+        <v>0.4284485465293244</v>
       </c>
       <c r="D19">
-        <v>0.08249656965591612</v>
+        <v>0.1620956272874636</v>
       </c>
       <c r="E19">
-        <v>0.1154682121383992</v>
+        <v>0.1807175993518335</v>
       </c>
       <c r="F19">
-        <v>2.183773316090424</v>
+        <v>2.009045956693356</v>
       </c>
       <c r="G19">
-        <v>1.913468225402056</v>
+        <v>1.365984603809437</v>
       </c>
       <c r="H19">
-        <v>1.008457101089192</v>
+        <v>1.175485817301279</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1742620889831628</v>
+        <v>0.2384247230672329</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.07441000557242461</v>
+        <v>0.1608409859849402</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
-        <v>6.119689519940493</v>
+        <v>5.196602277993406</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3869412476644527</v>
+        <v>0.4305002966017071</v>
       </c>
       <c r="D20">
-        <v>0.08409847904434287</v>
+        <v>0.162212155079132</v>
       </c>
       <c r="E20">
-        <v>0.1184511117276728</v>
+        <v>0.1810913853069387</v>
       </c>
       <c r="F20">
-        <v>2.26045491421678</v>
+        <v>2.023728156611384</v>
       </c>
       <c r="G20">
-        <v>1.98605535898372</v>
+        <v>1.381154175649726</v>
       </c>
       <c r="H20">
-        <v>1.040491393531795</v>
+        <v>1.180876820556875</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.179305204442656</v>
+        <v>0.2391555843695983</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.07567149378988347</v>
+        <v>0.1608670197445861</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.957806003280837</v>
       </c>
       <c r="O20">
-        <v>6.340798952386763</v>
+        <v>5.240197079765721</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.427942004573822</v>
+        <v>0.4376297590455067</v>
       </c>
       <c r="D21">
-        <v>0.08962331568977788</v>
+        <v>0.1626667732736564</v>
       </c>
       <c r="E21">
-        <v>0.1287222721755441</v>
+        <v>0.1824328430329878</v>
       </c>
       <c r="F21">
-        <v>2.523372957917729</v>
+        <v>2.074260199388647</v>
       </c>
       <c r="G21">
-        <v>2.234649680961041</v>
+        <v>1.43300018958746</v>
       </c>
       <c r="H21">
-        <v>1.150550952230986</v>
+        <v>1.199636350297226</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.196664326363674</v>
+        <v>0.2417344006085784</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08004970943285628</v>
+        <v>0.1610160845176338</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571254</v>
       </c>
       <c r="O21">
-        <v>7.098749457838949</v>
+        <v>5.389864732357523</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4554422332077195</v>
+        <v>0.4424650069452412</v>
       </c>
       <c r="D22">
-        <v>0.09334903324335642</v>
+        <v>0.1630108001389914</v>
       </c>
       <c r="E22">
-        <v>0.1356388189016933</v>
+        <v>0.1833732736285576</v>
       </c>
       <c r="F22">
-        <v>2.699600734784212</v>
+        <v>2.108182241695829</v>
       </c>
       <c r="G22">
-        <v>2.401068121799113</v>
+        <v>1.467540598247496</v>
       </c>
       <c r="H22">
-        <v>1.224493402292211</v>
+        <v>1.2123785806412</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2083516594574348</v>
+        <v>0.2435116142159544</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.0830239136557509</v>
+        <v>0.1611593186794593</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.673791817957863</v>
       </c>
       <c r="O22">
-        <v>7.606680853974296</v>
+        <v>5.49006548527683</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.440695797327237</v>
+        <v>0.4398682683589925</v>
       </c>
       <c r="D23">
-        <v>0.09134945327865296</v>
+        <v>0.1628229022956802</v>
       </c>
       <c r="E23">
-        <v>0.1319274596193516</v>
+        <v>0.1828655236690651</v>
       </c>
       <c r="F23">
-        <v>2.605111246198021</v>
+        <v>2.089995342099598</v>
       </c>
       <c r="G23">
-        <v>2.311856759375388</v>
+        <v>1.449045613039544</v>
       </c>
       <c r="H23">
-        <v>1.184831148209383</v>
+        <v>1.205533731124149</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2020803805514859</v>
+        <v>0.2425546833317895</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.0814256241101603</v>
+        <v>0.1610786862503701</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190005627</v>
       </c>
       <c r="O23">
-        <v>7.334347290118785</v>
+        <v>5.436368103370228</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.386281999533054</v>
+        <v>0.4303867368071792</v>
       </c>
       <c r="D24">
-        <v>0.08400999409795418</v>
+        <v>0.1622055182295554</v>
       </c>
       <c r="E24">
-        <v>0.118286412206519</v>
+        <v>0.1810705365783676</v>
       </c>
       <c r="F24">
-        <v>2.2562251851799</v>
+        <v>2.022917360543119</v>
       </c>
       <c r="G24">
-        <v>1.982052549141741</v>
+        <v>1.380317834488125</v>
       </c>
       <c r="H24">
-        <v>1.038723574180409</v>
+        <v>1.180578340110031</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1790267790408322</v>
+        <v>0.2391149853095627</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.07560171380950464</v>
+        <v>0.1608653581273956</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
-        <v>6.328603303702096</v>
+        <v>5.237791048862846</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3301793478162551</v>
+        <v>0.4209142018309251</v>
       </c>
       <c r="D25">
-        <v>0.07653262217485235</v>
+        <v>0.1617417508117356</v>
       </c>
       <c r="E25">
-        <v>0.1043335284765234</v>
+        <v>0.1794083929518848</v>
       </c>
       <c r="F25">
-        <v>1.89588113486279</v>
+        <v>1.954407016463563</v>
       </c>
       <c r="G25">
-        <v>1.640527879381182</v>
+        <v>1.308991014268713</v>
       </c>
       <c r="H25">
-        <v>0.888499318490517</v>
+        <v>1.155728654418482</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.155423135152617</v>
+        <v>0.235799068926255</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.06975009595340609</v>
+        <v>0.1608325559542507</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>3.331249627311365</v>
       </c>
       <c r="O25">
-        <v>5.289276300750544</v>
+        <v>5.033810303472592</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_251/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_251/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4145870963267839</v>
+        <v>0.2906672013852756</v>
       </c>
       <c r="D2">
-        <v>0.1615748415687079</v>
+        <v>0.07135028954760259</v>
       </c>
       <c r="E2">
-        <v>0.1784203654063603</v>
+        <v>0.09460069602861054</v>
       </c>
       <c r="F2">
-        <v>1.907250001524517</v>
+        <v>1.64142304837803</v>
       </c>
       <c r="G2">
-        <v>1.258863221492163</v>
+        <v>1.398571940123958</v>
       </c>
       <c r="H2">
-        <v>1.139205889773933</v>
+        <v>0.7829734909834372</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2336961426485047</v>
+        <v>0.1389251875321378</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1609786650762786</v>
+        <v>0.0657578221559163</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696401</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>4.892343549182669</v>
+        <v>4.554766457157598</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4107024072645231</v>
+        <v>0.264819150403838</v>
       </c>
       <c r="D3">
-        <v>0.1615709920218293</v>
+        <v>0.06801556062993086</v>
       </c>
       <c r="E3">
-        <v>0.1778979785888062</v>
+        <v>0.08829168160850998</v>
       </c>
       <c r="F3">
-        <v>1.877333202784783</v>
+        <v>1.474483329676787</v>
       </c>
       <c r="G3">
-        <v>1.226370776659223</v>
+        <v>1.239332217097825</v>
       </c>
       <c r="H3">
-        <v>1.129112780806395</v>
+        <v>0.7140766837168258</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2324819634783069</v>
+        <v>0.1282041312392863</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1611842094933245</v>
+        <v>0.06322577217071412</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679681</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
-        <v>4.801883612414144</v>
+        <v>4.07247046894571</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4085160041096572</v>
+        <v>0.2493502335155569</v>
       </c>
       <c r="D4">
-        <v>0.1616226682651245</v>
+        <v>0.06604828528415396</v>
       </c>
       <c r="E4">
-        <v>0.1776499131431954</v>
+        <v>0.08454456631307039</v>
       </c>
       <c r="F4">
-        <v>1.859969350165471</v>
+        <v>1.374323456204166</v>
       </c>
       <c r="G4">
-        <v>1.207147119790932</v>
+        <v>1.143540532656289</v>
       </c>
       <c r="H4">
-        <v>1.123460027337075</v>
+        <v>0.6729021160731747</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.231840510704231</v>
+        <v>0.1218214614425506</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1613630788569438</v>
+        <v>0.06174964215666634</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375818</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
-        <v>4.749003842339505</v>
+        <v>3.782885614023883</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.4076750433124943</v>
+        <v>0.2431398494578758</v>
       </c>
       <c r="D5">
-        <v>0.1616573420264942</v>
+        <v>0.06526579970244484</v>
       </c>
       <c r="E5">
-        <v>0.1775671208319913</v>
+        <v>0.08304739593246069</v>
       </c>
       <c r="F5">
-        <v>1.853146138554038</v>
+        <v>1.334045195922528</v>
       </c>
       <c r="G5">
-        <v>1.199495870671711</v>
+        <v>1.10495485690582</v>
       </c>
       <c r="H5">
-        <v>1.121293439370447</v>
+        <v>0.6563846136819791</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2316052930081511</v>
+        <v>0.1192671533854153</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1614492342834453</v>
+        <v>0.06116690039067407</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
-        <v>4.728124154461909</v>
+        <v>3.666374842582229</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4075384239871767</v>
+        <v>0.2421140398592172</v>
       </c>
       <c r="D6">
-        <v>0.1616639226908205</v>
+        <v>0.06513700019984725</v>
       </c>
       <c r="E6">
-        <v>0.1775544788788963</v>
+        <v>0.08280053531265352</v>
       </c>
       <c r="F6">
-        <v>1.852028410230858</v>
+        <v>1.327388065775452</v>
       </c>
       <c r="G6">
-        <v>1.198236405631889</v>
+        <v>1.09857357778337</v>
       </c>
       <c r="H6">
-        <v>1.120941952292355</v>
+        <v>0.6536570643601181</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2315678168707933</v>
+        <v>0.1188457302302197</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1614643421285713</v>
+        <v>0.06107124471965619</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>4.7246975083238</v>
+        <v>3.647114593805156</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4085044600711711</v>
+        <v>0.2492661100931315</v>
       </c>
       <c r="D7">
-        <v>0.1616230807239916</v>
+        <v>0.06603765594966404</v>
       </c>
       <c r="E7">
-        <v>0.1776487224689518</v>
+        <v>0.08452425684750509</v>
       </c>
       <c r="F7">
-        <v>1.859876306866127</v>
+        <v>1.373778137521754</v>
       </c>
       <c r="G7">
-        <v>1.207043193539619</v>
+        <v>1.143018391235444</v>
       </c>
       <c r="H7">
-        <v>1.123430253393025</v>
+        <v>0.672678324925414</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2318372324579556</v>
+        <v>0.1217868287672417</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1613641870416771</v>
+        <v>0.06174170822880143</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851395496</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
-        <v>4.748719542336403</v>
+        <v>3.781308435578865</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4132064037997338</v>
+        <v>0.2816665603976958</v>
       </c>
       <c r="D8">
-        <v>0.1615623138236018</v>
+        <v>0.07018320188220173</v>
       </c>
       <c r="E8">
-        <v>0.1782251725285136</v>
+        <v>0.09239779316054353</v>
       </c>
       <c r="F8">
-        <v>1.896726010695033</v>
+        <v>1.583344276061283</v>
       </c>
       <c r="G8">
-        <v>1.247508824146593</v>
+        <v>1.343224603225138</v>
       </c>
       <c r="H8">
-        <v>1.135612805412876</v>
+        <v>0.7589697864431457</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2332559032987476</v>
+        <v>0.1351847676646187</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1610386191533593</v>
+        <v>0.06486786709934833</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209825</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
-        <v>4.86059998215768</v>
+        <v>4.38701912016694</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4240043641161151</v>
+        <v>0.3487715019660413</v>
       </c>
       <c r="D9">
-        <v>0.1618709033210948</v>
+        <v>0.07899773853696246</v>
       </c>
       <c r="E9">
-        <v>0.1799316716272514</v>
+        <v>0.1089424535994716</v>
       </c>
       <c r="F9">
-        <v>1.976973078055465</v>
+        <v>2.015395767200289</v>
       </c>
       <c r="G9">
-        <v>1.332644793882565</v>
+        <v>1.753923792174675</v>
       </c>
       <c r="H9">
-        <v>1.163823441513983</v>
+        <v>0.9382341243810117</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2368634153445655</v>
+        <v>0.163224320681401</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1608171973377601</v>
+        <v>0.07166871888615134</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O9">
-        <v>5.101162523401683</v>
+        <v>5.634073602072533</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4329007671987029</v>
+        <v>0.4008252118141513</v>
       </c>
       <c r="D10">
-        <v>0.1623572111729956</v>
+        <v>0.08596474182782288</v>
       </c>
       <c r="E10">
-        <v>0.1815361776646149</v>
+        <v>0.1219232012843854</v>
       </c>
       <c r="F10">
-        <v>2.040820501381816</v>
+        <v>2.349515612903929</v>
       </c>
       <c r="G10">
-        <v>1.398750128412559</v>
+        <v>2.070310699451539</v>
       </c>
       <c r="H10">
-        <v>1.187188775875882</v>
+        <v>1.077735688674551</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2400175384909247</v>
+        <v>0.1851741583348172</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1609077591742292</v>
+        <v>0.07714583962169996</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837536</v>
       </c>
       <c r="O10">
-        <v>5.290882596801623</v>
+        <v>6.597572748559401</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4371575361408873</v>
+        <v>0.4252456720107602</v>
       </c>
       <c r="D11">
-        <v>0.1626345781302803</v>
+        <v>0.0892588013496578</v>
       </c>
       <c r="E11">
-        <v>0.1823422034696165</v>
+        <v>0.1280452313274019</v>
       </c>
       <c r="F11">
-        <v>2.070933559428283</v>
+        <v>2.506090006833972</v>
       </c>
       <c r="G11">
-        <v>1.429602432515935</v>
+        <v>2.218320448680714</v>
       </c>
       <c r="H11">
-        <v>1.198392676900625</v>
+        <v>1.143306332572251</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2415619452896181</v>
+        <v>0.195520247977548</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1610037532333237</v>
+        <v>0.07975961899352058</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731763</v>
       </c>
       <c r="O11">
-        <v>5.38002757159876</v>
+        <v>7.048931978765722</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4387996321026719</v>
+        <v>0.434612726907261</v>
       </c>
       <c r="D12">
-        <v>0.1627476604520766</v>
+        <v>0.09052575646656891</v>
       </c>
       <c r="E12">
-        <v>0.1826583594944289</v>
+        <v>0.1303981503766778</v>
       </c>
       <c r="F12">
-        <v>2.08249050447148</v>
+        <v>2.566127375101132</v>
       </c>
       <c r="G12">
-        <v>1.441398060645895</v>
+        <v>2.275038159136585</v>
       </c>
       <c r="H12">
-        <v>1.202718009386928</v>
+        <v>1.168478183217019</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2421625299244141</v>
+        <v>0.1994962106563065</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1610479651501322</v>
+        <v>0.08076860042598355</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>5.414193847512422</v>
+        <v>7.221984316641624</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4384446366101997</v>
+        <v>0.4325898257306449</v>
       </c>
       <c r="D13">
-        <v>0.1627229485253068</v>
+        <v>0.09025199719921773</v>
       </c>
       <c r="E13">
-        <v>0.1825897836986528</v>
+        <v>0.1298898082649984</v>
       </c>
       <c r="F13">
-        <v>2.079994667914889</v>
+        <v>2.553162588331617</v>
       </c>
       <c r="G13">
-        <v>1.438852651878591</v>
+        <v>2.26279180007856</v>
       </c>
       <c r="H13">
-        <v>1.201782795529283</v>
+        <v>1.163041128855525</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2420324828273266</v>
+        <v>0.1986372251397199</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1610380939957068</v>
+        <v>0.08055041665861751</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
-        <v>5.406817328695752</v>
+        <v>7.184615224344554</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4372920281793142</v>
+        <v>0.4260138300534493</v>
       </c>
       <c r="D14">
-        <v>0.1626437202922801</v>
+        <v>0.0893626324905199</v>
       </c>
       <c r="E14">
-        <v>0.1823679948194759</v>
+        <v>0.1282380923005775</v>
       </c>
       <c r="F14">
-        <v>2.071881273450145</v>
+        <v>2.511013833993132</v>
       </c>
       <c r="G14">
-        <v>1.430570609092314</v>
+        <v>2.222972726216142</v>
       </c>
       <c r="H14">
-        <v>1.198746868062074</v>
+        <v>1.145370155633714</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2416110401029954</v>
+        <v>0.1958461500891175</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1610072331331551</v>
+        <v>0.07984223381367173</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
-        <v>5.382830251232349</v>
+        <v>7.063124810462966</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4365899483082671</v>
+        <v>0.4220018206156908</v>
       </c>
       <c r="D15">
-        <v>0.162596238288593</v>
+        <v>0.08882047000963667</v>
       </c>
       <c r="E15">
-        <v>0.1822335658805763</v>
+        <v>0.1272309872677937</v>
       </c>
       <c r="F15">
-        <v>2.066931616112015</v>
+        <v>2.485296402234525</v>
       </c>
       <c r="G15">
-        <v>1.425512281660389</v>
+        <v>2.198672189183213</v>
       </c>
       <c r="H15">
-        <v>1.196898039116945</v>
+        <v>1.134591869542561</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2413549453743187</v>
+        <v>0.1941443005856129</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1609893531537594</v>
+        <v>0.07941100279714419</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193834</v>
       </c>
       <c r="O15">
-        <v>5.368190755786713</v>
+        <v>6.988994127045999</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4326267970158142</v>
+        <v>0.3992452704965785</v>
       </c>
       <c r="D16">
-        <v>0.162340212290303</v>
+        <v>0.08575211314504116</v>
       </c>
       <c r="E16">
-        <v>0.1814850325341908</v>
+        <v>0.1215277650067428</v>
       </c>
       <c r="F16">
-        <v>2.03887405489867</v>
+        <v>2.339382557883539</v>
       </c>
       <c r="G16">
-        <v>1.396749589797167</v>
+        <v>2.060726943723324</v>
       </c>
       <c r="H16">
-        <v>1.186468141939287</v>
+        <v>1.07349613908508</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2399188123669802</v>
+        <v>0.1845057980571738</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1609025867895397</v>
+        <v>0.07697761756618604</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
-        <v>5.285113966609799</v>
+        <v>6.568359311243455</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4302492454540641</v>
+        <v>0.3854835045394225</v>
       </c>
       <c r="D17">
-        <v>0.1621975111976752</v>
+        <v>0.08390283576297719</v>
       </c>
       <c r="E17">
-        <v>0.1810453185918668</v>
+        <v>0.1180869453089777</v>
       </c>
       <c r="F17">
-        <v>2.021935419282357</v>
+        <v>2.251101935548775</v>
       </c>
       <c r="G17">
-        <v>1.379304747435498</v>
+        <v>1.977203991531383</v>
       </c>
       <c r="H17">
-        <v>1.18021697327589</v>
+        <v>1.03658243290792</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2390658528425007</v>
+        <v>0.1786895751359694</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1608633798883545</v>
+        <v>0.0755172230815333</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>5.234876931550275</v>
+        <v>6.313831251855106</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4289014840593381</v>
+        <v>0.3776369937684478</v>
       </c>
       <c r="D18">
-        <v>0.1621207191674614</v>
+        <v>0.08285081484413581</v>
       </c>
       <c r="E18">
-        <v>0.1807995731982359</v>
+        <v>0.1161280796851543</v>
       </c>
       <c r="F18">
-        <v>2.012293332637199</v>
+        <v>2.200750782965471</v>
       </c>
       <c r="G18">
-        <v>1.369344397988556</v>
+        <v>1.929542779067731</v>
       </c>
       <c r="H18">
-        <v>1.176675578534685</v>
+        <v>1.015546810287333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2385855676477391</v>
+        <v>0.1753778092424838</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1608459879753426</v>
+        <v>0.07468863938696657</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.5514994903329</v>
       </c>
       <c r="O18">
-        <v>5.206249231189418</v>
+        <v>6.168645891449046</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4284485465293244</v>
+        <v>0.3749917565881447</v>
       </c>
       <c r="D19">
-        <v>0.1620956272874636</v>
+        <v>0.08249656965601559</v>
       </c>
       <c r="E19">
-        <v>0.1807175993518335</v>
+        <v>0.1154682121384312</v>
       </c>
       <c r="F19">
-        <v>2.009045956693356</v>
+        <v>2.183773316090438</v>
       </c>
       <c r="G19">
-        <v>1.365984603809437</v>
+        <v>1.913468225401999</v>
       </c>
       <c r="H19">
-        <v>1.175485817301279</v>
+        <v>1.008457101089192</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2384247230672329</v>
+        <v>0.1742620889830491</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1608409859849402</v>
+        <v>0.07441000557225053</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>5.196602277993406</v>
+        <v>6.119689519940493</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4305002966017071</v>
+        <v>0.3869412476644811</v>
       </c>
       <c r="D20">
-        <v>0.162212155079132</v>
+        <v>0.08409847904423629</v>
       </c>
       <c r="E20">
-        <v>0.1810913853069387</v>
+        <v>0.1184511117276763</v>
       </c>
       <c r="F20">
-        <v>2.023728156611384</v>
+        <v>2.260454914216766</v>
       </c>
       <c r="G20">
-        <v>1.381154175649726</v>
+        <v>1.986055358983748</v>
       </c>
       <c r="H20">
-        <v>1.180876820556875</v>
+        <v>1.040491393531795</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2391555843695983</v>
+        <v>0.1793052044427697</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1608670197445861</v>
+        <v>0.07567149378999716</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.957806003280837</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>5.240197079765721</v>
+        <v>6.340798952386706</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4376297590455067</v>
+        <v>0.4279420045733389</v>
       </c>
       <c r="D21">
-        <v>0.1626667732736564</v>
+        <v>0.08962331568977078</v>
       </c>
       <c r="E21">
-        <v>0.1824328430329878</v>
+        <v>0.1287222721755192</v>
       </c>
       <c r="F21">
-        <v>2.074260199388647</v>
+        <v>2.523372957917701</v>
       </c>
       <c r="G21">
-        <v>1.43300018958746</v>
+        <v>2.234649680961041</v>
       </c>
       <c r="H21">
-        <v>1.199636350297226</v>
+        <v>1.150550952230986</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2417344006085784</v>
+        <v>0.196664326363674</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1610160845176338</v>
+        <v>0.08004970943291312</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571254</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>5.389864732357523</v>
+        <v>7.098749457838949</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4424650069452412</v>
+        <v>0.4554422332079469</v>
       </c>
       <c r="D22">
-        <v>0.1630108001389914</v>
+        <v>0.09334903324334931</v>
       </c>
       <c r="E22">
-        <v>0.1833732736285576</v>
+        <v>0.1356388189016648</v>
       </c>
       <c r="F22">
-        <v>2.108182241695829</v>
+        <v>2.699600734784184</v>
       </c>
       <c r="G22">
-        <v>1.467540598247496</v>
+        <v>2.401068121799113</v>
       </c>
       <c r="H22">
-        <v>1.2123785806412</v>
+        <v>1.224493402292211</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2435116142159544</v>
+        <v>0.2083516594574277</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1611593186794593</v>
+        <v>0.08302391365580775</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.673791817957863</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
-        <v>5.49006548527683</v>
+        <v>7.606680853974296</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4398682683589925</v>
+        <v>0.4406957973270664</v>
       </c>
       <c r="D23">
-        <v>0.1628229022956802</v>
+        <v>0.09134945327865296</v>
       </c>
       <c r="E23">
-        <v>0.1828655236690651</v>
+        <v>0.1319274596193125</v>
       </c>
       <c r="F23">
-        <v>2.089995342099598</v>
+        <v>2.605111246197993</v>
       </c>
       <c r="G23">
-        <v>1.449045613039544</v>
+        <v>2.311856759375331</v>
       </c>
       <c r="H23">
-        <v>1.205533731124149</v>
+        <v>1.18483114820927</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2425546833317895</v>
+        <v>0.2020803805513651</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1610786862503701</v>
+        <v>0.08142562411015319</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190005627</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>5.436368103370228</v>
+        <v>7.334347290118785</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4303867368071792</v>
+        <v>0.3862819995333098</v>
       </c>
       <c r="D24">
-        <v>0.1622055182295554</v>
+        <v>0.08400999409815313</v>
       </c>
       <c r="E24">
-        <v>0.1810705365783676</v>
+        <v>0.1182864122064871</v>
       </c>
       <c r="F24">
-        <v>2.022917360543119</v>
+        <v>2.256225185179915</v>
       </c>
       <c r="G24">
-        <v>1.380317834488125</v>
+        <v>1.982052549141883</v>
       </c>
       <c r="H24">
-        <v>1.180578340110031</v>
+        <v>1.038723574180324</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2391149853095627</v>
+        <v>0.1790267790407682</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1608653581273956</v>
+        <v>0.07560171380954728</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>5.237791048862846</v>
+        <v>6.328603303702096</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4209142018309251</v>
+        <v>0.3301793478162551</v>
       </c>
       <c r="D25">
-        <v>0.1617417508117356</v>
+        <v>0.07653262217485235</v>
       </c>
       <c r="E25">
-        <v>0.1794083929518848</v>
+        <v>0.1043335284765305</v>
       </c>
       <c r="F25">
-        <v>1.954407016463563</v>
+        <v>1.895881134862805</v>
       </c>
       <c r="G25">
-        <v>1.308991014268713</v>
+        <v>1.640527879381182</v>
       </c>
       <c r="H25">
-        <v>1.155728654418482</v>
+        <v>0.888499318490517</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.235799068926255</v>
+        <v>0.155423135152617</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1608325559542507</v>
+        <v>0.06975009595334569</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311365</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>5.033810303472592</v>
+        <v>5.289276300750487</v>
       </c>
     </row>
   </sheetData>
